--- a/app/data/static/samples/inputs/by_department/mozzarella/План по варкам моцарелла 3.xlsx
+++ b/app/data/static/samples/inputs/by_department/mozzarella/План по варкам моцарелла 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mi\Desktop\master\code\git\2020.10-umalat\umalat\app\data\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marklidenberg/Yandex.Disk.localized/master/code/git/2020.10-umalat/umalat/app/data/static/samples/inputs/by_department/mozzarella/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB854587-C4DD-4725-962B-D16B6C6F6DAF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9860F2E6-61E4-524F-A8BB-AA21975B2D47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
   <definedNames>
     <definedName name="Water_SKU">'Вода SKU'!$A$1:$A$100</definedName>
   </definedNames>
-  <calcPr calcId="179021" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -2350,21 +2350,21 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3160,12 +3160,12 @@
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="9.109375" style="1" customWidth="1"/>
+    <col min="1" max="1025" width="9.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>129</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>149</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>160</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>179</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>302</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="7" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>420</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>422</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A9" s="23">
         <v>44193</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>44193</v>
       </c>
     </row>
-    <row r="10" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <v>44194</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>44194</v>
       </c>
     </row>
-    <row r="11" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>44195</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>44195</v>
       </c>
     </row>
-    <row r="12" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>44196</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="13" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A13" s="23">
         <v>44197</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="14" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A14" s="23">
         <v>44198</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>44198</v>
       </c>
     </row>
-    <row r="15" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <v>44199</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>44199</v>
       </c>
     </row>
-    <row r="16" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
         <v>44200</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="17" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>44201</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="18" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>44202</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>44202</v>
       </c>
     </row>
-    <row r="19" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>44203</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>44203</v>
       </c>
     </row>
-    <row r="20" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>44204</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>44204</v>
       </c>
     </row>
-    <row r="21" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <v>44205</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>44205</v>
       </c>
     </row>
-    <row r="22" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A22" s="23">
         <v>44206</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>44206</v>
       </c>
     </row>
-    <row r="23" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <v>44207</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>44207</v>
       </c>
     </row>
-    <row r="24" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <v>44208</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>44208</v>
       </c>
     </row>
-    <row r="25" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>44209</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="26" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>44210</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>44210</v>
       </c>
     </row>
-    <row r="27" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
         <v>44211</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>44211</v>
       </c>
     </row>
-    <row r="28" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A28" s="23">
         <v>44212</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>44212</v>
       </c>
     </row>
-    <row r="29" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
         <v>44213</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>44213</v>
       </c>
     </row>
-    <row r="30" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A30" s="23">
         <v>44214</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>44214</v>
       </c>
     </row>
-    <row r="31" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A31" s="23">
         <v>44215</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>44215</v>
       </c>
     </row>
-    <row r="32" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A32" s="23">
         <v>44216</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="33" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A33" s="23">
         <v>44217</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>44217</v>
       </c>
     </row>
-    <row r="34" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A34" s="23">
         <v>44218</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>44218</v>
       </c>
     </row>
-    <row r="35" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A35" s="23">
         <v>44219</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>44219</v>
       </c>
     </row>
-    <row r="36" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A36" s="23">
         <v>44220</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>44220</v>
       </c>
     </row>
-    <row r="37" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A37" s="23">
         <v>44221</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>44221</v>
       </c>
     </row>
-    <row r="38" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A38" s="23">
         <v>44222</v>
       </c>
@@ -8110,7 +8110,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="39" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A39" s="23">
         <v>44223</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="40" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A40" s="23">
         <v>44224</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>44224</v>
       </c>
     </row>
-    <row r="41" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A41" s="23">
         <v>44225</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="42" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A42" s="23">
         <v>44226</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>44226</v>
       </c>
     </row>
-    <row r="43" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A43" s="23">
         <v>44227</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>44227</v>
       </c>
     </row>
-    <row r="44" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A44" s="23">
         <v>44228</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="45" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A45" s="23">
         <v>44229</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>44229</v>
       </c>
     </row>
-    <row r="46" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A46" s="23">
         <v>44230</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>44230</v>
       </c>
     </row>
-    <row r="47" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A47" s="23">
         <v>44231</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="48" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A48" s="23">
         <v>44232</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>44232</v>
       </c>
     </row>
-    <row r="49" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A49" s="23">
         <v>44233</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>44233</v>
       </c>
     </row>
-    <row r="50" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A50" s="23">
         <v>44234</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>44234</v>
       </c>
     </row>
-    <row r="51" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A51" s="23">
         <v>44235</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="52" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A52" s="23">
         <v>44236</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="53" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A53" s="23">
         <v>44237</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="54" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A54" s="23">
         <v>44238</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="55" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A55" s="23">
         <v>44239</v>
       </c>
@@ -9704,7 +9704,7 @@
         <v>44239</v>
       </c>
     </row>
-    <row r="56" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A56" s="23">
         <v>44240</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>44240</v>
       </c>
     </row>
-    <row r="57" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A57" s="23">
         <v>44241</v>
       </c>
@@ -9957,7 +9957,7 @@
         <v>44241</v>
       </c>
     </row>
-    <row r="58" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A58" s="23">
         <v>44242</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="59" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A59" s="23">
         <v>44243</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>44243</v>
       </c>
     </row>
-    <row r="60" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A60" s="23">
         <v>44244</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>44244</v>
       </c>
     </row>
-    <row r="61" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A61" s="23">
         <v>44245</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>44245</v>
       </c>
     </row>
-    <row r="62" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A62" s="23">
         <v>44246</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>44246</v>
       </c>
     </row>
-    <row r="63" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A63" s="23">
         <v>44247</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="64" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A64" s="23">
         <v>44248</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>44248</v>
       </c>
     </row>
-    <row r="65" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A65" s="23">
         <v>44249</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v>44249</v>
       </c>
     </row>
-    <row r="66" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A66" s="23">
         <v>44250</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v>44250</v>
       </c>
     </row>
-    <row r="67" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A67" s="23">
         <v>44251</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>44251</v>
       </c>
     </row>
-    <row r="68" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A68" s="23">
         <v>44252</v>
       </c>
@@ -10435,7 +10435,7 @@
         <v>44252</v>
       </c>
     </row>
-    <row r="69" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A69" s="23">
         <v>44253</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="70" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A70" s="23">
         <v>44254</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>44254</v>
       </c>
     </row>
-    <row r="71" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A71" s="23">
         <v>44255</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>44255</v>
       </c>
     </row>
-    <row r="72" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A72" s="23">
         <v>44256</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="73" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A73" s="23">
         <v>44257</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="74" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A74" s="23">
         <v>44258</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>44258</v>
       </c>
     </row>
-    <row r="75" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A75" s="23">
         <v>44259</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>44259</v>
       </c>
     </row>
-    <row r="76" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A76" s="23">
         <v>44260</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="77" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A77" s="23">
         <v>44261</v>
       </c>
@@ -10534,7 +10534,7 @@
         <v>44261</v>
       </c>
     </row>
-    <row r="78" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A78" s="23">
         <v>44262</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>44262</v>
       </c>
     </row>
-    <row r="79" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A79" s="23">
         <v>44263</v>
       </c>
@@ -10556,10 +10556,10 @@
         <v>44263</v>
       </c>
     </row>
-    <row r="80" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
     </row>
-    <row r="81" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>427</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="82" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>428</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="83" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>429</v>
       </c>
@@ -11378,19 +11378,19 @@
         <v>429</v>
       </c>
     </row>
-    <row r="84" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="DW84" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="DW85" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>430</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="87" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>431</v>
       </c>
@@ -11421,10 +11421,10 @@
         <v>431</v>
       </c>
     </row>
-    <row r="88" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
     </row>
-    <row r="89" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>432</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="90" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>428</v>
       </c>
@@ -11809,7 +11809,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="91" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>429</v>
       </c>
@@ -11820,19 +11820,19 @@
         <v>434</v>
       </c>
     </row>
-    <row r="92" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="DW92" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="DW93" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>430</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="95" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>431</v>
       </c>
@@ -11854,10 +11854,10 @@
         <v>436</v>
       </c>
     </row>
-    <row r="96" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
     </row>
-    <row r="97" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>437</v>
       </c>
@@ -12231,7 +12231,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="98" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>428</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="99" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>429</v>
       </c>
@@ -12253,7 +12253,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="100" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>0</v>
       </c>
@@ -12264,7 +12264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>0</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>430</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="103" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>431</v>
       </c>
@@ -12294,10 +12294,10 @@
         <v>436</v>
       </c>
     </row>
-    <row r="104" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
     </row>
-    <row r="105" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>438</v>
       </c>
@@ -12671,7 +12671,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="106" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>428</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="107" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>429</v>
       </c>
@@ -13419,7 +13419,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="108" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>0</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>0</v>
       </c>
@@ -14167,7 +14167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>430</v>
       </c>
@@ -14541,7 +14541,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="111" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>431</v>
       </c>
@@ -14915,10 +14915,10 @@
         <v>436</v>
       </c>
     </row>
-    <row r="112" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
     </row>
-    <row r="113" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>439</v>
       </c>
@@ -15295,10 +15295,10 @@
         <v>439</v>
       </c>
     </row>
-    <row r="114" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
     </row>
-    <row r="115" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>440</v>
       </c>
@@ -15684,10 +15684,10 @@
         <v>440</v>
       </c>
     </row>
-    <row r="116" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
     </row>
-    <row r="117" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>441</v>
       </c>
@@ -15698,7 +15698,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="118" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>442</v>
       </c>
@@ -16066,7 +16066,7 @@
         <v>15296.025000000011</v>
       </c>
     </row>
-    <row r="119" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>443</v>
       </c>
@@ -16434,7 +16434,7 @@
         <v>27637.84</v>
       </c>
     </row>
-    <row r="120" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="DR120" s="1" t="s">
         <v>424</v>
@@ -16443,7 +16443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>444</v>
       </c>
@@ -16814,7 +16814,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="122" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>424</v>
       </c>
@@ -17182,7 +17182,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="123" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>424</v>
       </c>
@@ -17553,7 +17553,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="124" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="DW124" s="1">
         <v>0</v>
@@ -17562,7 +17562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>445</v>
       </c>
@@ -17939,7 +17939,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="126" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>446</v>
       </c>
@@ -18316,13 +18316,13 @@
         <v>446</v>
       </c>
     </row>
-    <row r="127" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="DW127" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>447</v>
       </c>
@@ -18705,10 +18705,10 @@
         <v>447</v>
       </c>
     </row>
-    <row r="129" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
     </row>
-    <row r="130" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>448</v>
       </c>
@@ -18737,7 +18737,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="131" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>455</v>
       </c>
@@ -18775,7 +18775,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="132" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>456</v>
       </c>
@@ -18813,7 +18813,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="133" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>424</v>
       </c>
@@ -18821,7 +18821,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="134" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>457</v>
       </c>
@@ -18847,10 +18847,10 @@
         <v>457</v>
       </c>
     </row>
-    <row r="135" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
     </row>
-    <row r="136" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>458</v>
       </c>
@@ -18876,10 +18876,10 @@
         <v>458</v>
       </c>
     </row>
-    <row r="137" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
     </row>
-    <row r="138" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>459</v>
       </c>
@@ -18902,10 +18902,10 @@
         <v>459</v>
       </c>
     </row>
-    <row r="139" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
     </row>
-    <row r="140" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="I140" s="1">
         <v>360</v>
@@ -18956,7 +18956,7 @@
         <v>13400.2</v>
       </c>
     </row>
-    <row r="141" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>460</v>
       </c>
@@ -19339,7 +19339,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="142" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>461</v>
       </c>
@@ -19350,7 +19350,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="143" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>462</v>
       </c>
@@ -19625,7 +19625,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="144" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>463</v>
       </c>
@@ -19900,19 +19900,19 @@
         <v>463</v>
       </c>
     </row>
-    <row r="145" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="DW145" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="DW146" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>464</v>
       </c>
@@ -20280,7 +20280,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="148" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>465</v>
       </c>
@@ -20648,7 +20648,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="149" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>466</v>
       </c>
@@ -21016,7 +21016,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="150" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>467</v>
       </c>
@@ -21384,7 +21384,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="151" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>468</v>
       </c>
@@ -21752,7 +21752,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="152" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>469</v>
       </c>
@@ -22120,7 +22120,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="153" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>470</v>
       </c>
@@ -22488,7 +22488,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="154" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>471</v>
       </c>
@@ -22856,10 +22856,10 @@
         <v>471</v>
       </c>
     </row>
-    <row r="155" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
     </row>
-    <row r="156" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>472</v>
       </c>
@@ -23242,7 +23242,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="157" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>461</v>
       </c>
@@ -23610,7 +23610,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="158" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>462</v>
       </c>
@@ -23978,7 +23978,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="159" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>463</v>
       </c>
@@ -24346,7 +24346,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="160" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="1">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="1">
         <v>0</v>
@@ -25054,7 +25054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>473</v>
       </c>
@@ -25422,7 +25422,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="163" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>474</v>
       </c>
@@ -25790,7 +25790,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="164" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>475</v>
       </c>
@@ -26158,7 +26158,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="165" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>476</v>
       </c>
@@ -26526,7 +26526,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="166" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>477</v>
       </c>
@@ -26894,7 +26894,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="167" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>478</v>
       </c>
@@ -27262,7 +27262,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="168" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>479</v>
       </c>
@@ -27630,7 +27630,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="169" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>480</v>
       </c>
@@ -27998,10 +27998,10 @@
         <v>480</v>
       </c>
     </row>
-    <row r="170" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
     </row>
-    <row r="171" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>481</v>
       </c>
@@ -28387,7 +28387,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="172" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A172" s="23">
         <v>43938</v>
       </c>
@@ -28398,7 +28398,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="173" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A173" s="23">
         <v>43939</v>
       </c>
@@ -28409,7 +28409,7 @@
         <v>43939</v>
       </c>
     </row>
-    <row r="174" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A174" s="23">
         <v>43940</v>
       </c>
@@ -28420,7 +28420,7 @@
         <v>43940</v>
       </c>
     </row>
-    <row r="175" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="DW175" s="1">
         <v>0</v>
@@ -28429,7 +28429,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="176" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="DW176" s="1">
         <v>0</v>
@@ -28438,7 +28438,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="177" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>473</v>
       </c>
@@ -28449,7 +28449,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="178" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>474</v>
       </c>
@@ -28460,7 +28460,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="179" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>475</v>
       </c>
@@ -28471,7 +28471,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="180" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>476</v>
       </c>
@@ -28482,7 +28482,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="181" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>477</v>
       </c>
@@ -28493,7 +28493,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="182" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>478</v>
       </c>
@@ -28504,7 +28504,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="183" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>479</v>
       </c>
@@ -28515,7 +28515,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="184" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>480</v>
       </c>
@@ -28526,10 +28526,10 @@
         <v>480</v>
       </c>
     </row>
-    <row r="185" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
     </row>
-    <row r="186" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>483</v>
       </c>
@@ -28915,7 +28915,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="187" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>461</v>
       </c>
@@ -29289,7 +29289,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="188" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>462</v>
       </c>
@@ -29663,7 +29663,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="189" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>463</v>
       </c>
@@ -30037,7 +30037,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="190" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="1">
         <v>0</v>
@@ -30406,7 +30406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="1">
         <v>0</v>
@@ -30775,7 +30775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>484</v>
       </c>
@@ -31149,7 +31149,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="193" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>485</v>
       </c>
@@ -31523,7 +31523,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="194" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>486</v>
       </c>
@@ -31897,7 +31897,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="195" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>487</v>
       </c>
@@ -32271,7 +32271,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="196" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>488</v>
       </c>
@@ -32645,7 +32645,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="197" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>489</v>
       </c>
@@ -33019,7 +33019,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="198" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>490</v>
       </c>
@@ -33393,7 +33393,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="199" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>491</v>
       </c>
@@ -33767,10 +33767,10 @@
         <v>491</v>
       </c>
     </row>
-    <row r="200" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
     </row>
-    <row r="201" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>492</v>
       </c>
@@ -34096,7 +34096,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="202" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>493</v>
       </c>
@@ -34107,7 +34107,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="203" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>494</v>
       </c>
@@ -34490,7 +34490,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="204" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>495</v>
       </c>
@@ -34873,7 +34873,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="205" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>496</v>
       </c>
@@ -35256,7 +35256,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="206" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>497</v>
       </c>
@@ -35639,7 +35639,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="207" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>498</v>
       </c>
@@ -35647,7 +35647,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="208" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>499</v>
       </c>
@@ -36012,7 +36012,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="209" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>500</v>
       </c>
@@ -36392,7 +36392,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="210" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>501</v>
       </c>
@@ -36772,7 +36772,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="211" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>502</v>
       </c>
@@ -36780,7 +36780,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="212" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>503</v>
       </c>
@@ -37160,7 +37160,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="213" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>504</v>
       </c>
@@ -37540,10 +37540,10 @@
         <v>504</v>
       </c>
     </row>
-    <row r="214" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
     </row>
-    <row r="215" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>508</v>
       </c>
@@ -37926,7 +37926,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="216" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>428</v>
       </c>
@@ -38312,7 +38312,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="217" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>429</v>
       </c>
@@ -38698,7 +38698,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="218" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>0</v>
       </c>
@@ -38712,7 +38712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>0</v>
       </c>
@@ -38726,7 +38726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>430</v>
       </c>
@@ -38743,7 +38743,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="221" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>431</v>
       </c>
@@ -38754,10 +38754,10 @@
         <v>436</v>
       </c>
     </row>
-    <row r="222" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
     </row>
-    <row r="223" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>509</v>
       </c>
@@ -39131,7 +39131,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="224" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>510</v>
       </c>
@@ -39514,7 +39514,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="225" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>511</v>
       </c>
@@ -39897,7 +39897,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="226" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>512</v>
       </c>
@@ -40271,7 +40271,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="227" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>513</v>
       </c>
@@ -40645,7 +40645,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="228" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>514</v>
       </c>
@@ -41019,7 +41019,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="229" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>515</v>
       </c>
@@ -41393,15 +41393,15 @@
         <v>515</v>
       </c>
     </row>
-    <row r="230" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
     </row>
-    <row r="231" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="232" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>517</v>
       </c>
@@ -41769,7 +41769,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="233" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>518</v>
       </c>
@@ -42137,7 +42137,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="234" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>519</v>
       </c>
@@ -42505,7 +42505,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="235" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>520</v>
       </c>
@@ -42873,7 +42873,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="236" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>521</v>
       </c>
@@ -43241,7 +43241,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="237" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>522</v>
       </c>
@@ -43609,16 +43609,16 @@
         <v>522</v>
       </c>
     </row>
-    <row r="238" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
     </row>
-    <row r="239" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
     </row>
-    <row r="240" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
     </row>
-    <row r="241" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>523</v>
       </c>
@@ -43857,12 +43857,12 @@
         <v>523</v>
       </c>
     </row>
-    <row r="242" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="243" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
       <c r="B243" s="1" t="s">
         <v>148</v>
@@ -44120,7 +44120,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="244" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
       <c r="E244" s="1">
         <v>1594</v>
@@ -44375,7 +44375,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="245" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>148</v>
       </c>
@@ -44620,10 +44620,10 @@
         <v>814.5</v>
       </c>
     </row>
-    <row r="246" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
     </row>
-    <row r="247" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
       <c r="F247" s="1" t="s">
         <v>308</v>
@@ -44794,103 +44794,103 @@
         <v>311</v>
       </c>
     </row>
-    <row r="248" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
     </row>
-    <row r="249" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
     </row>
-    <row r="250" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
     </row>
-    <row r="251" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
     </row>
-    <row r="252" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
     </row>
-    <row r="253" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
     </row>
-    <row r="254" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
     </row>
-    <row r="255" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
     </row>
-    <row r="256" spans="1:130" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:130" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="2"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="2"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="2"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="2"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="2"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="2"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
     </row>
-    <row r="273" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
     </row>
-    <row r="274" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
     </row>
-    <row r="275" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
     </row>
-    <row r="276" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
     </row>
-    <row r="277" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
     </row>
-    <row r="278" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A278" s="2"/>
     </row>
-    <row r="279" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
     </row>
-    <row r="280" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A280" s="2"/>
       <c r="B280" s="1" t="s">
         <v>181</v>
@@ -45037,7 +45037,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="281" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>618</v>
       </c>
@@ -45186,7 +45186,7 @@
         <v>130263.976</v>
       </c>
     </row>
-    <row r="282" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>619</v>
       </c>
@@ -45278,7 +45278,7 @@
         <v>204608.33300000001</v>
       </c>
     </row>
-    <row r="283" spans="1:128" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A283" s="2"/>
       <c r="B283" s="1" t="s">
         <v>181</v>
@@ -45332,13 +45332,13 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.77734375" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.83203125" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>674</v>
       </c>
@@ -45346,7 +45346,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>226</v>
       </c>
@@ -45354,7 +45354,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>225</v>
       </c>
@@ -45362,7 +45362,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>222</v>
       </c>
@@ -45370,7 +45370,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>223</v>
       </c>
@@ -45378,7 +45378,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>224</v>
       </c>
@@ -45386,7 +45386,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>217</v>
       </c>
@@ -45394,7 +45394,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>213</v>
       </c>
@@ -45402,7 +45402,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
         <v>220</v>
       </c>
@@ -45410,7 +45410,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
         <v>215</v>
       </c>
@@ -45418,7 +45418,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>219</v>
       </c>
@@ -45426,7 +45426,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
         <v>228</v>
       </c>
@@ -45434,7 +45434,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
         <v>212</v>
       </c>
@@ -45442,7 +45442,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
         <v>214</v>
       </c>
@@ -45450,7 +45450,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
         <v>540</v>
       </c>
@@ -45458,7 +45458,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>216</v>
       </c>
@@ -45466,7 +45466,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>205</v>
       </c>
@@ -45474,7 +45474,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
         <v>210</v>
       </c>
@@ -45482,7 +45482,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>218</v>
       </c>
@@ -45490,7 +45490,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
         <v>204</v>
       </c>
@@ -45498,7 +45498,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
         <v>211</v>
       </c>
@@ -45506,7 +45506,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
         <v>206</v>
       </c>
@@ -45514,7 +45514,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
         <v>207</v>
       </c>
@@ -45522,7 +45522,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
         <v>208</v>
       </c>
@@ -45530,7 +45530,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
         <v>209</v>
       </c>
@@ -45538,7 +45538,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
         <v>227</v>
       </c>
@@ -45546,7 +45546,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
         <v>221</v>
       </c>
@@ -45554,7 +45554,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="s">
         <v>203</v>
       </c>
@@ -45562,7 +45562,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="32" t="s">
         <v>196</v>
       </c>
@@ -45570,7 +45570,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="s">
         <v>195</v>
       </c>
@@ -45578,7 +45578,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="32" t="s">
         <v>200</v>
       </c>
@@ -45586,7 +45586,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="32" t="s">
         <v>198</v>
       </c>
@@ -45594,7 +45594,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="32" t="s">
         <v>197</v>
       </c>
@@ -45602,7 +45602,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="32" t="s">
         <v>202</v>
       </c>
@@ -45610,7 +45610,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="32" t="s">
         <v>564</v>
       </c>
@@ -45618,7 +45618,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="32" t="s">
         <v>201</v>
       </c>
@@ -45626,7 +45626,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="32" t="s">
         <v>199</v>
       </c>
@@ -45648,48 +45648,48 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.77734375" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="69.83203125" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>641</v>
       </c>
@@ -45710,25 +45710,25 @@
       <selection pane="bottomLeft" activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="62.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.21875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="4" customWidth="1"/>
-    <col min="13" max="16" width="9.109375" style="1" customWidth="1"/>
-    <col min="17" max="22" width="9.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="1025" width="9.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="62.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="4" customWidth="1"/>
+    <col min="13" max="16" width="9.1640625" style="1" customWidth="1"/>
+    <col min="17" max="22" width="9.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="1025" width="9.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>620</v>
       </c>
@@ -45770,11 +45770,11 @@
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
         <v>631</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="43" t="s">
         <v>632</v>
       </c>
       <c r="C2" s="25" t="s">
@@ -45819,9 +45819,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="41"/>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="44" t="s">
         <v>634</v>
       </c>
       <c r="C3" s="27" t="s">
@@ -45846,8 +45846,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
         <v>635</v>
       </c>
       <c r="B4" s="42" t="s">
@@ -45892,9 +45892,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="28" t="s">
         <v>163</v>
       </c>
@@ -45917,8 +45917,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="40"/>
       <c r="B6" s="41"/>
       <c r="C6" s="28" t="s">
         <v>166</v>
@@ -45942,9 +45942,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="40"/>
+      <c r="B7" s="38" t="s">
         <v>157</v>
       </c>
       <c r="C7" s="29" t="s">
@@ -45969,7 +45969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="29" t="s">
@@ -45994,11 +45994,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="39" t="s">
         <v>638</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="43" t="s">
         <v>632</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -46040,9 +46040,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
-      <c r="B12" s="39" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="40"/>
+      <c r="B12" s="44" t="s">
         <v>634</v>
       </c>
       <c r="C12" s="27" t="s">
@@ -46067,9 +46067,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="27" t="s">
         <v>165</v>
       </c>
@@ -46092,9 +46092,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="27" t="s">
         <v>170</v>
       </c>
@@ -46117,9 +46117,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="27" t="s">
         <v>163</v>
       </c>
@@ -46142,9 +46142,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="27" t="s">
         <v>167</v>
       </c>
@@ -46167,9 +46167,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="27" t="s">
         <v>165</v>
       </c>
@@ -46192,9 +46192,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="27" t="s">
         <v>171</v>
       </c>
@@ -46217,9 +46217,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="27" t="s">
         <v>165</v>
       </c>
@@ -46242,7 +46242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="41"/>
       <c r="B20" s="41"/>
       <c r="C20" s="27" t="s">
@@ -46267,8 +46267,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="39" t="s">
         <v>641</v>
       </c>
       <c r="B23" s="45" t="s">
@@ -46313,9 +46313,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="30" t="s">
         <v>164</v>
       </c>
@@ -46338,9 +46338,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="31" t="s">
         <v>172</v>
       </c>
@@ -46363,8 +46363,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="40"/>
       <c r="B26" s="41"/>
       <c r="C26" s="31" t="s">
         <v>172</v>
@@ -46388,9 +46388,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="38" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="40"/>
+      <c r="B27" s="43" t="s">
         <v>632</v>
       </c>
       <c r="C27" s="30" t="s">
@@ -46415,9 +46415,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="25" t="s">
         <v>161</v>
       </c>
@@ -46440,9 +46440,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="25" t="s">
         <v>163</v>
       </c>
@@ -46465,9 +46465,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="25" t="s">
         <v>161</v>
       </c>
@@ -46490,9 +46490,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="25" t="s">
         <v>166</v>
       </c>
@@ -46515,9 +46515,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="25" t="s">
         <v>161</v>
       </c>
@@ -46540,8 +46540,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="43"/>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="40"/>
       <c r="B33" s="41"/>
       <c r="C33" s="25" t="s">
         <v>161</v>
@@ -46565,9 +46565,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
-      <c r="B34" s="39" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="40"/>
+      <c r="B34" s="44" t="s">
         <v>634</v>
       </c>
       <c r="C34" s="27" t="s">
@@ -46592,9 +46592,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="27" t="s">
         <v>168</v>
       </c>
@@ -46617,9 +46617,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
       <c r="C36" s="27" t="s">
         <v>166</v>
       </c>
@@ -46642,9 +46642,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="27" t="s">
         <v>163</v>
       </c>
@@ -46667,9 +46667,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="27" t="s">
         <v>164</v>
       </c>
@@ -46692,7 +46692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="27" t="s">
@@ -46717,8 +46717,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" s="40" t="s">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="39" t="s">
         <v>644</v>
       </c>
       <c r="B42" s="42" t="s">
@@ -46763,9 +46763,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="28" t="s">
         <v>173</v>
       </c>
@@ -46788,9 +46788,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="28" t="s">
         <v>169</v>
       </c>
@@ -46813,9 +46813,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="28" t="s">
         <v>174</v>
       </c>
@@ -46838,9 +46838,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
       <c r="C46" s="28" t="s">
         <v>175</v>
       </c>
@@ -46863,9 +46863,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="40"/>
+      <c r="B47" s="40"/>
       <c r="C47" s="28" t="s">
         <v>165</v>
       </c>
@@ -46888,9 +46888,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
       <c r="C48" s="28" t="s">
         <v>163</v>
       </c>
@@ -46913,8 +46913,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" s="43"/>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49" s="40"/>
       <c r="B49" s="41"/>
       <c r="C49" s="28" t="s">
         <v>167</v>
@@ -46938,9 +46938,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="43"/>
-      <c r="B50" s="44" t="s">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="40"/>
+      <c r="B50" s="38" t="s">
         <v>157</v>
       </c>
       <c r="C50" s="29" t="s">
@@ -46965,9 +46965,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
       <c r="C51" s="29" t="s">
         <v>169</v>
       </c>
@@ -46990,9 +46990,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" s="40"/>
+      <c r="B52" s="40"/>
       <c r="C52" s="29" t="s">
         <v>167</v>
       </c>
@@ -47015,9 +47015,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
       <c r="C53" s="29" t="s">
         <v>175</v>
       </c>
@@ -47040,9 +47040,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
       <c r="C54" s="29" t="s">
         <v>174</v>
       </c>
@@ -47065,9 +47065,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
       <c r="C55" s="29" t="s">
         <v>173</v>
       </c>
@@ -47090,7 +47090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="29" t="s">
@@ -47115,8 +47115,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A59" s="40" t="s">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59" s="39" t="s">
         <v>646</v>
       </c>
       <c r="B59" s="42" t="s">
@@ -47161,11 +47161,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" s="40" t="s">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A62" s="39" t="s">
         <v>648</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="43" t="s">
         <v>155</v>
       </c>
       <c r="C62" s="25" t="s">
@@ -47206,9 +47206,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A63" s="40"/>
+      <c r="B63" s="40"/>
       <c r="C63" s="25" t="s">
         <v>164</v>
       </c>
@@ -47231,9 +47231,9 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64" s="40"/>
+      <c r="B64" s="40"/>
       <c r="C64" s="25" t="s">
         <v>650</v>
       </c>
@@ -47256,9 +47256,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A65" s="40"/>
+      <c r="B65" s="40"/>
       <c r="C65" s="25" t="s">
         <v>164</v>
       </c>
@@ -47281,7 +47281,7 @@
         <v>-11.4</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="25" t="s">
@@ -47306,8 +47306,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69" s="40" t="s">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A69" s="39" t="s">
         <v>648</v>
       </c>
       <c r="B69" s="42" t="s">
@@ -47352,8 +47352,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A70" s="43"/>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A70" s="40"/>
       <c r="B70" s="41"/>
       <c r="C70" s="28" t="s">
         <v>164</v>
@@ -47377,9 +47377,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="41"/>
-      <c r="B71" s="44" t="s">
+      <c r="B71" s="38" t="s">
         <v>157</v>
       </c>
       <c r="C71" s="29" t="s">
@@ -47406,6 +47406,22 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B2"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="A23:A39"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="A42:A56"/>
     <mergeCell ref="B71"/>
     <mergeCell ref="A69:A71"/>
     <mergeCell ref="B59"/>
@@ -47413,22 +47429,6 @@
     <mergeCell ref="B62:B66"/>
     <mergeCell ref="A62:A66"/>
     <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="A23:A39"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="B11"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B2"/>
-    <mergeCell ref="B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A4:A8"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -47450,33 +47450,32 @@
       <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="1" customWidth="1"/>
     <col min="4" max="5" width="10.33203125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="43.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" style="11" customWidth="1"/>
-    <col min="13" max="13" width="8.77734375" style="12" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="13" customWidth="1"/>
-    <col min="15" max="15" width="1.77734375" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="10.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="43.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="13" customWidth="1"/>
+    <col min="15" max="15" width="1.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="5.5" style="1" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="5" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="3.21875" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="4.5546875" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="6.77734375" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="8.77734375" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="8.5546875" style="1" hidden="1" customWidth="1"/>
-    <col min="25" max="1025" width="8.5546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="3.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="4.5" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="6.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="8.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24 1025:1025" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24 1025:1025" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>652</v>
       </c>
@@ -47547,7 +47546,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="2" spans="1:24 1025:1025" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24 1025:1025" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J2" s="11" t="str">
         <f t="shared" ref="J2:J4" ca="1" si="0">IF(M2="", IF(O2="","",X2+(INDIRECT("S" &amp; ROW() - 1) - S2)),IF(O2="", "", INDIRECT("S" &amp; ROW() - 1) - S2))</f>
         <v/>
@@ -47594,7 +47593,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:24 1025:1025" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24 1025:1025" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J3" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -47641,7 +47640,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:24 1025:1025" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24 1025:1025" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J4" s="11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -47688,7 +47687,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:24 1025:1025" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24 1025:1025" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J5" s="11" t="str">
         <f t="shared" ref="I5:J36" ca="1" si="10">IF(M5="", IF(O5="","",X5+(INDIRECT("S" &amp; ROW() - 1) - S5)),IF(O5="", "", INDIRECT("S" &amp; ROW() - 1) - S5))</f>
         <v/>
@@ -47735,7 +47734,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:24 1025:1025" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24 1025:1025" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J6" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -47782,7 +47781,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:24 1025:1025" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24 1025:1025" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J7" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -47829,7 +47828,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:24 1025:1025" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24 1025:1025" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J8" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -47876,7 +47875,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:24 1025:1025" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24 1025:1025" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J9" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -47923,7 +47922,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:24 1025:1025" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24 1025:1025" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I10" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -47973,7 +47972,7 @@
       </c>
       <c r="AMK10"/>
     </row>
-    <row r="11" spans="1:24 1025:1025" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24 1025:1025" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J11" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -48020,7 +48019,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:24 1025:1025" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24 1025:1025" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J12" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -48067,7 +48066,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:24 1025:1025" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24 1025:1025" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J13" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -48114,7 +48113,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:24 1025:1025" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24 1025:1025" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J14" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -48161,7 +48160,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:24 1025:1025" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24 1025:1025" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J15" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -48208,7 +48207,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:24 1025:1025" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24 1025:1025" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J16" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -48255,7 +48254,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J17" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -48302,7 +48301,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J18" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -48349,7 +48348,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J19" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -48396,7 +48395,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J20" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -48443,7 +48442,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J21" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -48490,7 +48489,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J22" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -48537,7 +48536,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J23" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -48584,7 +48583,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J24" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -48631,7 +48630,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J25" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -48678,7 +48677,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J26" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -48725,7 +48724,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J27" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -48772,7 +48771,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J28" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -48819,7 +48818,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J29" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -48866,7 +48865,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J30" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -48913,7 +48912,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J31" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -48960,7 +48959,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J32" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -49007,7 +49006,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J33" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -49054,7 +49053,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J34" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -49101,7 +49100,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J35" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -49148,7 +49147,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J36" s="11" t="str">
         <f t="shared" ca="1" si="10"/>
         <v/>
@@ -49195,7 +49194,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J37" s="11" t="str">
         <f t="shared" ref="J37:J68" ca="1" si="20">IF(M37="", IF(O37="","",X37+(INDIRECT("S" &amp; ROW() - 1) - S37)),IF(O37="", "", INDIRECT("S" &amp; ROW() - 1) - S37))</f>
         <v/>
@@ -49242,7 +49241,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J38" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49289,7 +49288,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J39" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49336,7 +49335,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J40" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49383,7 +49382,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J41" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49430,7 +49429,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J42" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49477,7 +49476,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J43" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49524,7 +49523,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J44" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49571,7 +49570,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J45" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49618,7 +49617,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J46" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49665,7 +49664,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J47" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49712,7 +49711,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J48" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49759,7 +49758,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J49" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49806,7 +49805,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J50" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49853,7 +49852,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J51" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49900,7 +49899,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J52" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49947,7 +49946,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J53" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -49994,7 +49993,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J54" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -50041,7 +50040,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J55" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -50088,7 +50087,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J56" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -50135,7 +50134,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J57" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -50182,7 +50181,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J58" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -50229,7 +50228,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J59" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -50276,7 +50275,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J60" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -50323,7 +50322,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J61" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -50370,7 +50369,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J62" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -50417,7 +50416,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J63" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -50464,7 +50463,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J64" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -50511,7 +50510,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J65" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -50558,7 +50557,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J66" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -50605,7 +50604,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J67" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -50652,7 +50651,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J68" s="11" t="str">
         <f t="shared" ca="1" si="20"/>
         <v/>
@@ -50699,7 +50698,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J69" s="11" t="str">
         <f t="shared" ref="J69:J93" ca="1" si="31">IF(M69="", IF(O69="","",X69+(INDIRECT("S" &amp; ROW() - 1) - S69)),IF(O69="", "", INDIRECT("S" &amp; ROW() - 1) - S69))</f>
         <v/>
@@ -50746,7 +50745,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J70" s="11" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -50793,7 +50792,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J71" s="11" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -50840,7 +50839,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J72" s="11" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -50887,7 +50886,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J73" s="11" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -50934,7 +50933,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J74" s="11" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -50981,7 +50980,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J75" s="11" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -51028,7 +51027,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J76" s="11" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -51075,7 +51074,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J77" s="11" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -51122,7 +51121,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J78" s="11" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -51169,7 +51168,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J79" s="11" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -51216,7 +51215,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J80" s="11" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -51263,7 +51262,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J81" s="11" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -51310,7 +51309,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J82" s="11" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -51357,7 +51356,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J83" s="11" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -51404,7 +51403,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J84" s="11" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -51451,7 +51450,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J85" s="11" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -51498,7 +51497,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J86" s="11" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -51545,7 +51544,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J87" s="11" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -51592,7 +51591,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J88" s="11" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -51639,7 +51638,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J89" s="11" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -51686,7 +51685,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J90" s="11" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -51733,7 +51732,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J91" s="11" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -51780,7 +51779,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J92" s="11" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -51827,7 +51826,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J93" s="11" t="str">
         <f t="shared" ca="1" si="31"/>
         <v/>
@@ -51954,37 +51953,36 @@
   <dimension ref="A1:AMK112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="1" customWidth="1"/>
     <col min="4" max="5" width="10.33203125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="43.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" style="11" customWidth="1"/>
-    <col min="13" max="13" width="8.77734375" style="20" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="21" customWidth="1"/>
-    <col min="15" max="15" width="1.77734375" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="5.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="10.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="43.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="20" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="21" customWidth="1"/>
+    <col min="15" max="15" width="1.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="5.5" style="1" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="5" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="3.21875" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" style="1" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="3.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="6.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5546875" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5" style="1" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="12" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="8.5546875" style="1" hidden="1" customWidth="1"/>
-    <col min="25" max="1025" width="8.5546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>652</v>
       </c>
@@ -52055,7 +52053,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36">
         <f ca="1">IF(O2="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R2)))))</f>
         <v>1</v>
@@ -52133,7 +52131,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="str">
         <f ca="1">IF(O3="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R3)))))</f>
         <v>-</v>
@@ -52211,7 +52209,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36">
         <f ca="1">IF(O4="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R4)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R4)))))</f>
         <v>2</v>
@@ -52289,7 +52287,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:24" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34">
         <f ca="1">IF(O5="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R5)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R5)))))</f>
         <v>2</v>
@@ -52368,7 +52366,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="str">
         <f ca="1">IF(O6="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R6)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R6)))))</f>
         <v>-</v>
@@ -52446,7 +52444,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="35">
         <f ca="1">IF(O7="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R7)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R7)))))</f>
         <v>3</v>
@@ -52524,7 +52522,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="str">
         <f ca="1">IF(O8="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R8)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R8)))))</f>
         <v>-</v>
@@ -52602,7 +52600,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35">
         <f ca="1">IF(O9="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R9)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R9)))))</f>
         <v>4</v>
@@ -52680,7 +52678,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="str">
         <f ca="1">IF(O10="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R10)))))</f>
         <v>-</v>
@@ -52758,7 +52756,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34">
         <f ca="1">IF(O11="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R11)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R11)))))</f>
         <v>5</v>
@@ -52837,7 +52835,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:24" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="str">
         <f ca="1">IF(O12="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R12)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R12)))))</f>
         <v>-</v>
@@ -52916,7 +52914,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="36">
         <f ca="1">IF(O13="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R13)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R13)))))</f>
         <v>6</v>
@@ -52994,7 +52992,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="str">
         <f ca="1">IF(O14="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R14)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R14)))))</f>
         <v>-</v>
@@ -53072,7 +53070,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="35">
         <f ca="1">IF(O15="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R15)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R15)))))</f>
         <v>7</v>
@@ -53150,7 +53148,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <f ca="1">IF(O16="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R16)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R16)))))</f>
         <v>7</v>
@@ -53228,7 +53226,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="str">
         <f ca="1">IF(O17="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R17)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R17)))))</f>
         <v>-</v>
@@ -53306,7 +53304,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34">
         <f ca="1">IF(O18="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R18)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R18)))))</f>
         <v>8</v>
@@ -53384,7 +53382,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="35">
         <f ca="1">IF(O19="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R19)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R19)))))</f>
         <v>8</v>
@@ -53462,7 +53460,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="35">
         <f ca="1">IF(O20="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R20)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R20)))))</f>
         <v>8</v>
@@ -53540,7 +53538,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="str">
         <f ca="1">IF(O21="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R21)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R21)))))</f>
         <v>-</v>
@@ -53618,7 +53616,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="35">
         <f ca="1">IF(O22="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R22)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R22)))))</f>
         <v>9</v>
@@ -53696,7 +53694,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="str">
         <f ca="1">IF(O23="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R23)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R23)))))</f>
         <v>-</v>
@@ -53774,7 +53772,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="34">
         <f ca="1">IF(O24="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R24)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R24)))))</f>
         <v>10</v>
@@ -53852,7 +53850,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="36">
         <f ca="1">IF(O25="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R25)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R25)))))</f>
         <v>10</v>
@@ -53930,7 +53928,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:24" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" s="1" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="str">
         <f ca="1">IF(O26="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R26)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R26)))))</f>
         <v>-</v>
@@ -54009,7 +54007,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="35">
         <f ca="1">IF(O27="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R27)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R27)))))</f>
         <v>11</v>
@@ -54087,7 +54085,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="str">
         <f ca="1">IF(O28="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R28)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R28)))))</f>
         <v>-</v>
@@ -54165,7 +54163,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="35">
         <f ca="1">IF(O29="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R29)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R29)))))</f>
         <v>12</v>
@@ -54243,7 +54241,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="str">
         <f ca="1">IF(O30="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R30)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R30)))))</f>
         <v>-</v>
@@ -54321,7 +54319,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="35">
         <f ca="1">IF(O31="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R31)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R31)))))</f>
         <v>13</v>
@@ -54399,7 +54397,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="32" t="str">
         <f ca="1">IF(O32="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R32)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R32)))))</f>
         <v>-</v>
@@ -54477,7 +54475,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="33" spans="1:24" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" s="1" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="34">
         <f ca="1">IF(O33="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R33)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R33)))))</f>
         <v>14</v>
@@ -54556,7 +54554,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="34">
         <f ca="1">IF(O34="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R34)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R34)))))</f>
         <v>14</v>
@@ -54634,7 +54632,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="32" t="str">
         <f ca="1">IF(O35="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R35)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R35)))))</f>
         <v>-</v>
@@ -54712,7 +54710,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="34">
         <f ca="1">IF(O36="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R36)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R36)))))</f>
         <v>15</v>
@@ -54790,7 +54788,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="32" t="str">
         <f ca="1">IF(O37="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R37)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R37)))))</f>
         <v>-</v>
@@ -54868,7 +54866,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="34">
         <f ca="1">IF(O38="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R38)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R38)))))</f>
         <v>16</v>
@@ -54946,7 +54944,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="32" t="str">
         <f ca="1">IF(O39="-", "-", 1 + MAX(Вода!$A$2:$A$71) + SUM(INDIRECT(ADDRESS(2,COLUMN(R39)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(R39)))))</f>
         <v>-</v>
@@ -55024,7 +55022,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J40" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55071,7 +55069,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J41" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55118,7 +55116,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J42" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55165,7 +55163,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J43" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55212,7 +55210,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J44" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55259,7 +55257,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J45" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55306,7 +55304,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J46" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55353,7 +55351,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J47" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55400,7 +55398,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J48" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55447,7 +55445,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J49" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55494,7 +55492,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J50" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55541,7 +55539,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J51" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55588,7 +55586,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J52" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55635,7 +55633,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J53" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55682,7 +55680,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J54" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55729,7 +55727,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J55" s="11" t="str">
         <f t="shared" ca="1" si="28"/>
         <v/>
@@ -55776,7 +55774,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J56" s="11" t="str">
         <f t="shared" ref="J56:J87" ca="1" si="36">IF(M56="", IF(O56="","",X56+(INDIRECT("S" &amp; ROW() - 1) - S56)),IF(O56="", "", INDIRECT("S" &amp; ROW() - 1) - S56))</f>
         <v/>
@@ -55823,7 +55821,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J57" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -55870,7 +55868,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J58" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -55917,7 +55915,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J59" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -55964,7 +55962,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J60" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -56011,7 +56009,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J61" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -56058,7 +56056,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J62" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -56105,7 +56103,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J63" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -56152,7 +56150,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J64" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -56199,7 +56197,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J65" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -56246,7 +56244,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J66" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -56293,7 +56291,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J67" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -56340,7 +56338,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J68" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -56387,7 +56385,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J69" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -56434,7 +56432,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J70" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -56481,7 +56479,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J71" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -56528,7 +56526,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J72" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -56575,7 +56573,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J73" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -56622,7 +56620,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J74" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -56669,7 +56667,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J75" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -56716,7 +56714,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J76" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -56763,7 +56761,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J77" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -56810,7 +56808,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J78" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -56857,7 +56855,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J79" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -56904,7 +56902,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J80" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -56951,7 +56949,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J81" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -56998,7 +56996,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J82" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -57045,7 +57043,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J83" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -57092,7 +57090,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J84" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -57139,7 +57137,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J85" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -57186,7 +57184,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J86" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -57233,7 +57231,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J87" s="11" t="str">
         <f t="shared" ca="1" si="36"/>
         <v/>
@@ -57280,7 +57278,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J88" s="11" t="str">
         <f t="shared" ref="J88:J112" ca="1" si="47">IF(M88="", IF(O88="","",X88+(INDIRECT("S" &amp; ROW() - 1) - S88)),IF(O88="", "", INDIRECT("S" &amp; ROW() - 1) - S88))</f>
         <v/>
@@ -57327,7 +57325,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J89" s="11" t="str">
         <f t="shared" ca="1" si="47"/>
         <v/>
@@ -57374,7 +57372,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J90" s="11" t="str">
         <f t="shared" ca="1" si="47"/>
         <v/>
@@ -57421,7 +57419,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J91" s="11" t="str">
         <f t="shared" ca="1" si="47"/>
         <v/>
@@ -57468,7 +57466,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J92" s="11" t="str">
         <f t="shared" ca="1" si="47"/>
         <v/>
@@ -57515,7 +57513,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J93" s="11" t="str">
         <f t="shared" ca="1" si="47"/>
         <v/>
@@ -57562,7 +57560,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J94" s="11" t="str">
         <f t="shared" ca="1" si="47"/>
         <v/>
@@ -57609,7 +57607,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J95" s="11" t="str">
         <f t="shared" ca="1" si="47"/>
         <v/>
@@ -57656,7 +57654,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J96" s="11" t="str">
         <f t="shared" ca="1" si="47"/>
         <v/>
@@ -57703,7 +57701,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J97" s="11" t="str">
         <f t="shared" ca="1" si="47"/>
         <v/>
@@ -57750,7 +57748,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J98" s="11" t="str">
         <f t="shared" ca="1" si="47"/>
         <v/>
@@ -57797,7 +57795,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J99" s="11" t="str">
         <f t="shared" ca="1" si="47"/>
         <v/>
@@ -57844,7 +57842,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J100" s="11" t="str">
         <f t="shared" ca="1" si="47"/>
         <v/>
@@ -57891,7 +57889,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J101" s="11" t="str">
         <f t="shared" ca="1" si="47"/>
         <v/>
@@ -57938,7 +57936,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J102" s="11" t="str">
         <f t="shared" ca="1" si="47"/>
         <v/>
@@ -57985,7 +57983,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J103" s="11" t="str">
         <f t="shared" ca="1" si="47"/>
         <v/>
@@ -58032,7 +58030,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J104" s="11" t="str">
         <f t="shared" ca="1" si="47"/>
         <v/>
@@ -58079,7 +58077,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J105" s="11" t="str">
         <f t="shared" ca="1" si="47"/>
         <v/>
@@ -58126,7 +58124,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J106" s="11" t="str">
         <f t="shared" ca="1" si="47"/>
         <v/>
@@ -58173,7 +58171,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J107" s="11" t="str">
         <f t="shared" ca="1" si="47"/>
         <v/>
@@ -58220,7 +58218,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J108" s="11" t="str">
         <f t="shared" ca="1" si="47"/>
         <v/>
@@ -58267,7 +58265,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J109" s="11" t="str">
         <f t="shared" ca="1" si="47"/>
         <v/>
@@ -58314,7 +58312,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J110" s="11" t="str">
         <f t="shared" ca="1" si="47"/>
         <v/>
@@ -58361,7 +58359,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J111" s="11" t="str">
         <f t="shared" ca="1" si="47"/>
         <v/>
@@ -58408,7 +58406,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="10:24" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="10:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J112" s="11" t="str">
         <f t="shared" ca="1" si="47"/>
         <v/>
@@ -58630,22 +58628,22 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>688</v>
       </c>
@@ -58664,13 +58662,13 @@
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="9.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="9.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>223</v>
       </c>
@@ -58678,7 +58676,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>224</v>
       </c>
@@ -58686,7 +58684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>225</v>
       </c>
@@ -58694,7 +58692,7 @@
         <v>-11.4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>226</v>
       </c>
@@ -58720,9 +58718,9 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="9.109375" style="1" customWidth="1"/>
+    <col min="1" max="1025" width="9.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -58742,97 +58740,97 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
         <v>693</v>
       </c>
@@ -58851,13 +58849,13 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.6640625" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.5546875" style="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>674</v>
       </c>
@@ -58865,7 +58863,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>242</v>
       </c>
@@ -58873,7 +58871,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>232</v>
       </c>
@@ -58881,7 +58879,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>231</v>
       </c>
@@ -58889,7 +58887,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>233</v>
       </c>
@@ -58897,7 +58895,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>234</v>
       </c>
@@ -58905,7 +58903,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>235</v>
       </c>
@@ -58913,7 +58911,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>229</v>
       </c>
@@ -58921,7 +58919,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
         <v>247</v>
       </c>
@@ -58929,7 +58927,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
         <v>245</v>
       </c>
@@ -58937,7 +58935,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>243</v>
       </c>
@@ -58945,7 +58943,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
         <v>251</v>
       </c>
@@ -58953,7 +58951,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
         <v>252</v>
       </c>
@@ -58961,7 +58959,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
         <v>237</v>
       </c>
@@ -58969,7 +58967,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
         <v>238</v>
       </c>
@@ -58977,7 +58975,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>537</v>
       </c>
@@ -58985,7 +58983,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>240</v>
       </c>
@@ -58993,7 +58991,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
         <v>239</v>
       </c>
@@ -59001,7 +58999,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>230</v>
       </c>
@@ -59009,7 +59007,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
         <v>236</v>
       </c>
@@ -59017,7 +59015,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
         <v>246</v>
       </c>
@@ -59025,7 +59023,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
         <v>250</v>
       </c>
@@ -59033,7 +59031,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
         <v>248</v>
       </c>
@@ -59041,7 +59039,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
         <v>244</v>
       </c>
@@ -59049,7 +59047,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
         <v>249</v>
       </c>
@@ -59057,7 +59055,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
         <v>241</v>
       </c>
